--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros todo.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.748677986937118</v>
+        <v>1.395522533025078</v>
       </c>
       <c r="C11" t="n">
-        <v>1.810666433969228</v>
+        <v>3.31784014484661</v>
       </c>
       <c r="D11" t="n">
-        <v>5.383307259688438</v>
+        <v>10.30400648595023</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1273864526191124</v>
+        <v>1.023825371785848</v>
       </c>
       <c r="C12" t="n">
-        <v>0.39746233989505</v>
+        <v>3.054826254446577</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5566781141417482</v>
+        <v>4.016988216804097</v>
       </c>
     </row>
     <row r="13">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros todo.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.395522533025078</v>
+        <v>1.409913002006825</v>
       </c>
       <c r="C11" t="n">
-        <v>3.31784014484661</v>
+        <v>3.336749204164891</v>
       </c>
       <c r="D11" t="n">
-        <v>10.30400648595023</v>
+        <v>10.22161255314889</v>
       </c>
     </row>
     <row r="12">
